--- a/public/upload/fingerprint/بصمة أصابع والد محمد سيف.xlsx
+++ b/public/upload/fingerprint/بصمة أصابع والد محمد سيف.xlsx
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -419,6 +419,38 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>85</v>
+      </c>
+      <c r="H2">
+        <v>74</v>
+      </c>
+      <c r="I2">
+        <v>84</v>
+      </c>
+      <c r="J2">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
